--- a/Car_TestCases/Car_AdminReservedCars_TCs.xlsx
+++ b/Car_TestCases/Car_AdminReservedCars_TCs.xlsx
@@ -566,7 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.85546875" defaultRowHeight="183.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Car_TestCases/Car_AdminReservedCars_TCs.xlsx
+++ b/Car_TestCases/Car_AdminReservedCars_TCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Test case ID</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>TC_AdminRC_04</t>
+  </si>
+  <si>
+    <t>Car_SRS_50</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.85546875" defaultRowHeight="183.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>

--- a/Car_TestCases/Car_AdminReservedCars_TCs.xlsx
+++ b/Car_TestCases/Car_AdminReservedCars_TCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Test case ID</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Car_SRS_50</t>
+  </si>
+  <si>
+    <t>Fatma</t>
   </si>
 </sst>
 </file>
@@ -258,10 +261,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.85546875" defaultRowHeight="183.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,7 +589,8 @@
     <col min="10" max="10" width="32.5703125" style="6" customWidth="1"/>
     <col min="11" max="11" width="33.5703125" style="6" customWidth="1"/>
     <col min="12" max="12" width="30.28515625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="44.85546875" style="6"/>
+    <col min="13" max="13" width="30.42578125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="44.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -676,6 +680,9 @@
       <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -708,6 +715,9 @@
       <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -737,6 +747,9 @@
       <c r="K4" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="M4" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -768,6 +781,9 @@
       </c>
       <c r="K5" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
